--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.004</v>
+        <v>16.133</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5</v>
+        <v>16.545</v>
       </c>
     </row>
     <row r="5">
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.704000000000001</v>
+        <v>6.731</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.616</v>
+        <v>5.492999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.956</v>
+        <v>17.175</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.252</v>
+        <v>5.295</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.428</v>
+        <v>16.179</v>
       </c>
     </row>
     <row r="27">
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>4.954</v>
+        <v>5.322000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>4.970000000000001</v>
+        <v>6.013</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.739999999999999</v>
+        <v>6.029000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.472</v>
+        <v>16.196</v>
       </c>
     </row>
     <row r="32">
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.77</v>
+        <v>6.745</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.344</v>
+        <v>16.545</v>
       </c>
     </row>
     <row r="36">
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.48</v>
+        <v>8.507999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.958</v>
+        <v>16.653</v>
       </c>
     </row>
     <row r="38">
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.778</v>
+        <v>5.225</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.348</v>
+        <v>16.444</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.762</v>
+        <v>16.693</v>
       </c>
     </row>
     <row r="41">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.61</v>
+        <v>16.765</v>
       </c>
     </row>
     <row r="46">
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>4.956</v>
+        <v>6.367</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.6</v>
+        <v>16.718</v>
       </c>
     </row>
     <row r="53">
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.845999999999999</v>
+        <v>5.072000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.459</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.23</v>
+        <v>4.7</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.529</v>
       </c>
     </row>
     <row r="58">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.388</v>
+        <v>4.988999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.002000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.616</v>
+        <v>6.347</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.606</v>
+        <v>6.600999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.402</v>
+        <v>16.309</v>
       </c>
     </row>
     <row r="82">
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.142</v>
+        <v>5.827</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.79</v>
+        <v>16.973</v>
       </c>
     </row>
     <row r="84">
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.01</v>
+        <v>5.016</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.830000000000001</v>
+        <v>6.027</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.747999999999999</v>
+        <v>5.380999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.952</v>
+        <v>5.217</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.252</v>
+        <v>16.383</v>
       </c>
     </row>
   </sheetData>
